--- a/medicine/Enfance/Michel_Van_Zeveren/Michel_Van_Zeveren.xlsx
+++ b/medicine/Enfance/Michel_Van_Zeveren/Michel_Van_Zeveren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Van Zeveren, né le 30 janvier 1970 à Gand (province de Flandre-Orientale), est un dessinateur de bande dessinée, auteur et illustrateur belge de littérature jeunesse, de langue française.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Van Zeveren naît le 30 janvier 1970 à Gand[1],[2],[3]. Il rêve de devenir Walt Disney[2]. Il se forme artistiquement à l'École de recherche graphique (ERG) à Bruxelles[4]. Il sort son premier livre en 1999[4]. Il marque le début d'une longue collaboration avec L’École des loisirs[5].
-Il publie de nombreux albums dont La Porte (2008)[6], « un album plein de pudeur, d'humour et de sensibilité[7] » selon La Libre Belgique. Cet album lui vaut d'être récipiendaire du prix Libbylit, attribués par l'IBBY récompensant un album jeunesse belge[7]. C'est à moi, ça ! (2009) est traduit en 10 langues : allemand, anglais[8], cambodgien, catalan, chinois, coréen, espagnol, italien, néerlandais et suédois.
-Puis, il livre Je, tu, il m'embête (2013)[9]. La chroniqueuse Laurence Bertels de La Libre Belgique le décrit comme « talentueux et prolifique »[9].
-De 2016 à 2018, il réalise seul la série Les Trois Cochons petits[10] en 5 albums publiée dans la collection « Mini BD kids » aux éditions Bayard[11].
-En 2020, il rend hommage aux libraires dans Vivons livres[12] !. En 2021, il partage son temps entre les livres, la bande dessinée et des collaborations à différents magazines[13]. Il livre C'est Super Chat en 2023[14] !. L'année suivante, il illustre Mille et une histoires écrit par Rascal chez son éditeur historique.
-Il est lauréat d'une bourse d'aide au projet en 2006 et 2008 ainsi que d'une bourse d'aide à la création en 2010 et 2014 de la Fédération Wallonie-Bruxelles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Van Zeveren naît le 30 janvier 1970 à Gand. Il rêve de devenir Walt Disney. Il se forme artistiquement à l'École de recherche graphique (ERG) à Bruxelles. Il sort son premier livre en 1999. Il marque le début d'une longue collaboration avec L’École des loisirs.
+Il publie de nombreux albums dont La Porte (2008), « un album plein de pudeur, d'humour et de sensibilité » selon La Libre Belgique. Cet album lui vaut d'être récipiendaire du prix Libbylit, attribués par l'IBBY récompensant un album jeunesse belge. C'est à moi, ça ! (2009) est traduit en 10 langues : allemand, anglais, cambodgien, catalan, chinois, coréen, espagnol, italien, néerlandais et suédois.
+Puis, il livre Je, tu, il m'embête (2013). La chroniqueuse Laurence Bertels de La Libre Belgique le décrit comme « talentueux et prolifique ».
+De 2016 à 2018, il réalise seul la série Les Trois Cochons petits en 5 albums publiée dans la collection « Mini BD kids » aux éditions Bayard.
+En 2020, il rend hommage aux libraires dans Vivons livres !. En 2021, il partage son temps entre les livres, la bande dessinée et des collaborations à différents magazines. Il livre C'est Super Chat en 2023 !. L'année suivante, il illustre Mille et une histoires écrit par Rascal chez son éditeur historique.
+Il est lauréat d'une bourse d'aide au projet en 2006 et 2008 ainsi que d'une bourse d'aide à la création en 2010 et 2014 de la Fédération Wallonie-Bruxelles.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il demeure près de Bruxelles[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il demeure près de Bruxelles.
 </t>
         </is>
       </c>
@@ -580,18 +596,23 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auteur-illustrateur
-Oh ! Un poisson !, L’École des loisirs, Pastel, 1999  (ISBN 9782211048958)
+          <t>Auteur-illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Oh ! Un poisson !, L’École des loisirs, Pastel, 1999  (ISBN 9782211048958)
 Chut ! C'est un secret !, L’École des loisirs, Pastel, 2000
 Fauvette est en colère, L’École des loisirs, Pastel, 2000
-Trois Courageux Petits Gorilles[15], L’École des loisirs, Pastel, 2003
+Trois Courageux Petits Gorilles, L’École des loisirs, Pastel, 2003
 Au monstre !, L’École des loisirs, Pastel, 2003
 Moi, Paprika !, L’École des loisirs, Pastel, 2004
 1, 2, 3 petits chats qui savaient compter jusqu'à 3, L’École des loisirs, Pastel, 2004
 Le Voleur de bisous, L’École des loisirs, Pastel, 2005
 2 Fantômes au numéro 13, L’École des loisirs, Pastel, 2006
 Et pourquoi ?, L’École des loisirs, Pastel, 2007
-La Porte[6], L’École des loisirs, Pastel, 2008
+La Porte, L’École des loisirs, Pastel, 2008
 Il est minuit, L’École des loisirs, Pastel, 2008
 C'est à moi, ça !, L’École des loisirs, Pastel, 2009
 C'est pas grave, L’École des loisirs, Pastel, 2010
@@ -600,7 +621,7 @@
 Mais que dit l'escargot à chapeau ?, L’École des loisirs, Pastel, 2012
 Les Classes vertes, L’École des loisirs, Pastel, 2012
 Pauvre Petit Chat, L’École des loisirs, coll. « les lutins », 2013
-Je, tu, il m'embête[9], L’École des loisirs, Pastel, 2013
+Je, tu, il m'embête, L’École des loisirs, Pastel, 2013
 Comme un petit jaune, L’École des loisirs, Pastel, 2014
 Raoul - Attendez ! Je suis pressé !, L’École des loisirs, Pastel, 2014
 J'habite ici, L’École des loisirs, Pastel, 2015
@@ -618,30 +639,9 @@
 t. 1 : Zig Zag, L’École des loisirs, Pastel, 2021
 t. 2 : Cadeau promo, L’École des loisirs, Pastel, 2021
 t. 3 : Le Nouveau, L’École des loisirs, Pastel, 2022
-t. 4 : Gargulup[16], L’École des loisirs, Pastel, 2022
-C'est Super Chat ![14],[16], L’École des loisirs, Pastel, 2023
-T'as vu mes muscles[16] ?, L’École des loisirs, Pastel, 2023  (ISBN 9782211324311)
-Illustrateur
-Le Loup en laisse, textes de Christian Oster, illustré par Michel Van Zeveren, L’École des loisirs, coll. « Mouche », 2017  (ISBN 9782211227971)
- Les trois cochons petits et le méchant grand loup, texte de Pierre Bertrand, Bayard jeunesse, 2021
-Mille et une histoires[16], textes de Rascal, illustré par Michel Van Zeveren, L'École des loisirs, Pastel, 2024  (ISBN 9782211333580)
-Bande dessinée
-Pierre le loup
-1 La Maison de la forêt, Milan, coll. « Petit Bonum », Toulouse, 2e trimestre 2009Scénario et dessin : Michel Van Zeveren - Couleurs : quadrichromie -  (ISBN 9782745938589)
-Les Trois Cochons petits
-1 Dans la forêt enchantée[17], Bayard, coll. « Mini BD Kids », Montrouge, 7 septembre 2016Scénario, dessin et couleurs : Michel Van Zeveren -  (ISBN 978-2-7470-7119-2)
-2 Et les drôles de loups[18], Bayard, coll. « Mini BD Kids », Montrouge, 5 avril 2017Scénario, dessin et couleurs : Michel Van Zeveren -  (ISBN 978-2-7470-7293-9)
-3 Grenouilles, princes et princesses[19], Bayard, coll. « Mini BD Kids », Montrouge, 1er septembre 2017Scénario, dessin et couleurs : Michel Van Zeveren -  (ISBN 978-2-7470-8572-4)
-4 Vacances au pays des contes, Bayard, coll. « Mini BD Kids », Montrouge, 4 avril 2018Scénario, dessin et couleurs : Michel Van Zeveren -  (ISBN 978-2-7470-8880-0)
-5 Apprentis sorciers, Bayard, coll. « Mini BD Kids », Montrouge, 12 septembre 2018Scénario, dessin et couleurs : Michel Van Zeveren -  (ISBN 978-2-7470-9939-4)
-Revues
-Les Aventuriers[20] (Milan Presse)
-2001 : publication dans les nos 34 à 45
-2002 : publication dans les nos 46 à 51
-Toutàlire[20] (Milan Presse)
-2003 : publication dans les nos 4, 5, 6, 9, 11, 14
-2004 : publication dans le no 17
-Zaza Mimosa[20] (Milan Jeunesse), publication dans le no 16 en 2006.</t>
+t. 4 : Gargulup, L’École des loisirs, Pastel, 2022
+C'est Super Chat ! L’École des loisirs, Pastel, 2023
+T'as vu mes muscles ?, L’École des loisirs, Pastel, 2023  (ISBN 9782211324311)</t>
         </is>
       </c>
     </row>
@@ -666,13 +666,179 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Loup en laisse, textes de Christian Oster, illustré par Michel Van Zeveren, L’École des loisirs, coll. « Mouche », 2017  (ISBN 9782211227971)
+ Les trois cochons petits et le méchant grand loup, texte de Pierre Bertrand, Bayard jeunesse, 2021
+Mille et une histoires, textes de Rascal, illustré par Michel Van Zeveren, L'École des loisirs, Pastel, 2024  (ISBN 9782211333580)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michel_Van_Zeveren</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Van_Zeveren</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pierre le loup</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1 La Maison de la forêt, Milan, coll. « Petit Bonum », Toulouse, 2e trimestre 2009Scénario et dessin : Michel Van Zeveren - Couleurs : quadrichromie -  (ISBN 9782745938589)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Michel_Van_Zeveren</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Van_Zeveren</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Les Trois Cochons petits</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1 Dans la forêt enchantée, Bayard, coll. « Mini BD Kids », Montrouge, 7 septembre 2016Scénario, dessin et couleurs : Michel Van Zeveren -  (ISBN 978-2-7470-7119-2)
+2 Et les drôles de loups, Bayard, coll. « Mini BD Kids », Montrouge, 5 avril 2017Scénario, dessin et couleurs : Michel Van Zeveren -  (ISBN 978-2-7470-7293-9)
+3 Grenouilles, princes et princesses, Bayard, coll. « Mini BD Kids », Montrouge, 1er septembre 2017Scénario, dessin et couleurs : Michel Van Zeveren -  (ISBN 978-2-7470-8572-4)
+4 Vacances au pays des contes, Bayard, coll. « Mini BD Kids », Montrouge, 4 avril 2018Scénario, dessin et couleurs : Michel Van Zeveren -  (ISBN 978-2-7470-8880-0)
+5 Apprentis sorciers, Bayard, coll. « Mini BD Kids », Montrouge, 12 septembre 2018Scénario, dessin et couleurs : Michel Van Zeveren -  (ISBN 978-2-7470-9939-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Michel_Van_Zeveren</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Van_Zeveren</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Revues</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Aventuriers (Milan Presse)
+2001 : publication dans les nos 34 à 45
+2002 : publication dans les nos 46 à 51
+Toutàlire (Milan Presse)
+2003 : publication dans les nos 4, 5, 6, 9, 11, 14
+2004 : publication dans le no 17
+Zaza Mimosa (Milan Jeunesse), publication dans le no 16 en 2006.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Michel_Van_Zeveren</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Van_Zeveren</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2008 :  prix Libbylit[7] délivré par l'IBBY, pour La Porte.
-Trois de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[21] en 2024 : Et pourquoi ? (2007), Il est minuit (2008) et La Porte (2008).
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2008 :  prix Libbylit délivré par l'IBBY, pour La Porte.
+Trois de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) en 2024 : Et pourquoi ? (2007), Il est minuit (2008) et La Porte (2008).
 </t>
         </is>
       </c>
